--- a/staticfiles/templates/template_budget.xlsx
+++ b/staticfiles/templates/template_budget.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa83c6c3ce4931c5/Desktop/ppi/tutorials/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CS NOTES\MY PROJECTS\POLIAGENTX\theme\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B84155F-3244-4B8B-8E0B-1D1A6CD9FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47910CA5-EBB7-487B-9F4A-8202E5572F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C0929F4-2DA3-4BF0-9179-BADF23964158}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16E06E16-2553-4B9F-AC63-B0E58E8BBA9B}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_expenditure" sheetId="1" r:id="rId1"/>
+    <sheet name="raw_expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4F3215-ECC2-4F5F-83AC-8BDAB752BD11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE7647-0A26-4794-BD58-16BB19E9AE99}">
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -874,73 +874,73 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>2002</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>2003</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>2005</v>
       </c>
       <c r="H1">
-        <v>6</v>
+        <v>2006</v>
       </c>
       <c r="I1">
-        <v>7</v>
+        <v>2007</v>
       </c>
       <c r="J1">
-        <v>8</v>
+        <v>2008</v>
       </c>
       <c r="K1">
-        <v>9</v>
+        <v>2009</v>
       </c>
       <c r="L1">
-        <v>10</v>
+        <v>2010</v>
       </c>
       <c r="M1">
-        <v>11</v>
+        <v>2011</v>
       </c>
       <c r="N1">
-        <v>12</v>
+        <v>2012</v>
       </c>
       <c r="O1">
-        <v>13</v>
+        <v>2013</v>
       </c>
       <c r="P1">
-        <v>14</v>
+        <v>2014</v>
       </c>
       <c r="Q1">
-        <v>15</v>
+        <v>2015</v>
       </c>
       <c r="R1">
-        <v>16</v>
+        <v>2016</v>
       </c>
       <c r="S1">
-        <v>17</v>
+        <v>2017</v>
       </c>
       <c r="T1">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="U1">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="V1">
-        <v>20</v>
+        <v>2020</v>
       </c>
       <c r="W1">
-        <v>21</v>
+        <v>2021</v>
       </c>
       <c r="X1">
-        <v>22</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -948,73 +948,73 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>76.101459637114104</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>75.407459839842403</v>
       </c>
       <c r="D2">
-        <v>78</v>
+        <v>78.815556106941699</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>75.029465587072593</v>
       </c>
       <c r="F2">
-        <v>77</v>
+        <v>77.059207726586806</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>79.300656789105304</v>
       </c>
       <c r="H2">
-        <v>77</v>
+        <v>77.349554452048096</v>
       </c>
       <c r="I2">
-        <v>75</v>
+        <v>75.193281109460898</v>
       </c>
       <c r="J2">
-        <v>78</v>
+        <v>78.546465686299399</v>
       </c>
       <c r="K2">
-        <v>78</v>
+        <v>78.9187703202291</v>
       </c>
       <c r="L2">
-        <v>75</v>
+        <v>75.845680783913807</v>
       </c>
       <c r="M2">
-        <v>75</v>
+        <v>75.7179967921669</v>
       </c>
       <c r="N2">
-        <v>76</v>
+        <v>76.326665979661101</v>
       </c>
       <c r="O2">
-        <v>79</v>
+        <v>79.629445765169095</v>
       </c>
       <c r="P2">
-        <v>77</v>
+        <v>77.001898928348794</v>
       </c>
       <c r="Q2">
-        <v>79</v>
+        <v>79.495359241932206</v>
       </c>
       <c r="R2">
-        <v>75</v>
+        <v>75.265309556968305</v>
       </c>
       <c r="S2">
-        <v>79</v>
+        <v>79.182231119694507</v>
       </c>
       <c r="T2">
-        <v>76</v>
+        <v>76.7370241207948</v>
       </c>
       <c r="U2">
-        <v>75</v>
+        <v>75.045972069888904</v>
       </c>
       <c r="V2">
-        <v>76</v>
+        <v>76.856820372914001</v>
       </c>
       <c r="W2">
-        <v>79</v>
+        <v>79.631566582458504</v>
       </c>
       <c r="X2">
-        <v>75</v>
+        <v>75.978326002630695</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1022,73 +1022,73 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>27.733505765678</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>30.359303649822301</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>27.047537891094802</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>29.349506460033499</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>27.634046258761799</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>26.086381196004702</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>30.635199950599301</v>
       </c>
       <c r="I3">
-        <v>26</v>
+        <v>26.983303000107</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>30.899116735958401</v>
       </c>
       <c r="K3">
-        <v>29</v>
+        <v>29.7795325940872</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>29.351809983379301</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>26.155449953122599</v>
       </c>
       <c r="N3">
-        <v>27</v>
+        <v>27.959008182368699</v>
       </c>
       <c r="O3">
-        <v>30</v>
+        <v>30.8559506089568</v>
       </c>
       <c r="P3">
-        <v>28</v>
+        <v>28.324058610089001</v>
       </c>
       <c r="Q3">
-        <v>29</v>
+        <v>29.323354296207601</v>
       </c>
       <c r="R3">
-        <v>29</v>
+        <v>29.304476204137099</v>
       </c>
       <c r="S3">
-        <v>28</v>
+        <v>28.0765199926532</v>
       </c>
       <c r="T3">
-        <v>30</v>
+        <v>30.885578228626901</v>
       </c>
       <c r="U3">
-        <v>27</v>
+        <v>27.761037373600001</v>
       </c>
       <c r="V3">
-        <v>30</v>
+        <v>30.3639163532211</v>
       </c>
       <c r="W3">
-        <v>27</v>
+        <v>27.955566358215801</v>
       </c>
       <c r="X3">
-        <v>29</v>
+        <v>29.489618848747</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1096,73 +1096,73 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>14.967627933212199</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>16.289915879208301</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>14.319871741165001</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>15.7792685511263</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>14.0138171351871</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>15.585717311972299</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>15.559115958947899</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>15.7496395465141</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>17.1411962759015</v>
       </c>
       <c r="K4">
-        <v>15</v>
+        <v>15.251614472730701</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>16.759466228961699</v>
       </c>
       <c r="M4">
-        <v>14</v>
+        <v>14.7164937544872</v>
       </c>
       <c r="N4">
-        <v>18</v>
+        <v>18.929873817895398</v>
       </c>
       <c r="O4">
-        <v>18</v>
+        <v>18.282328902252299</v>
       </c>
       <c r="P4">
-        <v>17</v>
+        <v>17.634532190494198</v>
       </c>
       <c r="Q4">
-        <v>18</v>
+        <v>18.607786540742101</v>
       </c>
       <c r="R4">
-        <v>18</v>
+        <v>18.142628783062801</v>
       </c>
       <c r="S4">
-        <v>16</v>
+        <v>16.176428507380301</v>
       </c>
       <c r="T4">
-        <v>18</v>
+        <v>18.696378379694298</v>
       </c>
       <c r="U4">
-        <v>15</v>
+        <v>15.949757382665201</v>
       </c>
       <c r="V4">
-        <v>15</v>
+        <v>15.7640684617069</v>
       </c>
       <c r="W4">
-        <v>14</v>
+        <v>14.8828995438038</v>
       </c>
       <c r="X4">
-        <v>16</v>
+        <v>16.2090152243216</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1170,73 +1170,73 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>53.130442495449898</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>53.308972167173202</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>52.664088950041098</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>50.485032586545202</v>
       </c>
       <c r="F5">
-        <v>52</v>
+        <v>52.478832694481</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>50.363236277663503</v>
       </c>
       <c r="H5">
-        <v>52</v>
+        <v>52.765068977145503</v>
       </c>
       <c r="I5">
-        <v>54</v>
+        <v>54.764520525602201</v>
       </c>
       <c r="J5">
-        <v>52</v>
+        <v>52.262026350380502</v>
       </c>
       <c r="K5">
-        <v>53</v>
+        <v>53.589579781523902</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>50.710213801660103</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>52.849717779396101</v>
       </c>
       <c r="N5">
-        <v>52</v>
+        <v>52.513218571645098</v>
       </c>
       <c r="O5">
-        <v>54</v>
+        <v>54.3792660252468</v>
       </c>
       <c r="P5">
-        <v>52</v>
+        <v>52.031700756596599</v>
       </c>
       <c r="Q5">
-        <v>54</v>
+        <v>54.981680892280103</v>
       </c>
       <c r="R5">
-        <v>50</v>
+        <v>50.097031957916201</v>
       </c>
       <c r="S5">
-        <v>54</v>
+        <v>54.905479137260997</v>
       </c>
       <c r="T5">
-        <v>52</v>
+        <v>52.281981511597898</v>
       </c>
       <c r="U5">
-        <v>52</v>
+        <v>52.357182151201897</v>
       </c>
       <c r="V5">
-        <v>51</v>
+        <v>51.329551526440902</v>
       </c>
       <c r="W5">
-        <v>50</v>
+        <v>50.403683997960101</v>
       </c>
       <c r="X5">
-        <v>52</v>
+        <v>52.877299243321097</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1244,73 +1244,73 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>34.8784397919014</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>34.487903541220597</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>32.202287115981399</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>34.6605673937418</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>34.719991177407799</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>35.556515744083796</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>35.509772973368499</v>
       </c>
       <c r="I6">
-        <v>34</v>
+        <v>34.8418710290779</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>35.996052798106497</v>
       </c>
       <c r="K6">
-        <v>34</v>
+        <v>34.894694217960698</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>32.061634665545498</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>35.0313090250676</v>
       </c>
       <c r="N6">
-        <v>35</v>
+        <v>35.690843111191597</v>
       </c>
       <c r="O6">
-        <v>34</v>
+        <v>34.162980595835201</v>
       </c>
       <c r="P6">
-        <v>34</v>
+        <v>34.716396185672998</v>
       </c>
       <c r="Q6">
-        <v>35</v>
+        <v>35.6830377906305</v>
       </c>
       <c r="R6">
-        <v>34</v>
+        <v>34.874965408271699</v>
       </c>
       <c r="S6">
-        <v>34</v>
+        <v>34.199572620082002</v>
       </c>
       <c r="T6">
-        <v>34</v>
+        <v>34.333912691938501</v>
       </c>
       <c r="U6">
-        <v>35</v>
+        <v>35.516864828421497</v>
       </c>
       <c r="V6">
-        <v>34</v>
+        <v>34.550722051294898</v>
       </c>
       <c r="W6">
-        <v>33</v>
+        <v>33.453961457391003</v>
       </c>
       <c r="X6">
-        <v>35</v>
+        <v>35.459352073899097</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1318,73 +1318,73 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>18.067374918215201</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>18.913179672854401</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>22.571486033320902</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>18.391028973671698</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>22.621346603683001</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>19.003758221624501</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>19.343980069118999</v>
       </c>
       <c r="I7">
-        <v>22</v>
+        <v>22.9656081985746</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>20.8940708947217</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>18.970781840390501</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>18.079362860382801</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>20.764678966551699</v>
       </c>
       <c r="N7">
-        <v>20</v>
+        <v>20.6812405904687</v>
       </c>
       <c r="O7">
-        <v>18</v>
+        <v>18.3473955151733</v>
       </c>
       <c r="P7">
-        <v>19</v>
+        <v>19.472176501991601</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>19.6975282246907</v>
       </c>
       <c r="R7">
-        <v>22</v>
+        <v>22.725357792954998</v>
       </c>
       <c r="S7">
-        <v>18</v>
+        <v>18.776422276567299</v>
       </c>
       <c r="T7">
-        <v>21</v>
+        <v>21.232735014004501</v>
       </c>
       <c r="U7">
-        <v>18</v>
+        <v>18.807887213640999</v>
       </c>
       <c r="V7">
-        <v>21</v>
+        <v>21.389369404095799</v>
       </c>
       <c r="W7">
-        <v>21</v>
+        <v>21.560489035357602</v>
       </c>
       <c r="X7">
-        <v>21</v>
+        <v>21.9604128387234</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1392,73 +1392,73 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>72.0018926288747</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>75.556812054569093</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>76.236047124506996</v>
       </c>
       <c r="E8">
-        <v>72</v>
+        <v>72.5455032675643</v>
       </c>
       <c r="F8">
-        <v>72</v>
+        <v>72.029557582089893</v>
       </c>
       <c r="G8">
-        <v>73</v>
+        <v>73.6342232417053</v>
       </c>
       <c r="H8">
-        <v>74</v>
+        <v>74.154735161493704</v>
       </c>
       <c r="I8">
-        <v>74</v>
+        <v>74.416242420156806</v>
       </c>
       <c r="J8">
-        <v>75</v>
+        <v>75.117644606859002</v>
       </c>
       <c r="K8">
-        <v>74</v>
+        <v>74.058324073525796</v>
       </c>
       <c r="L8">
-        <v>73</v>
+        <v>73.883172462383399</v>
       </c>
       <c r="M8">
-        <v>72</v>
+        <v>72.014499261826501</v>
       </c>
       <c r="N8">
-        <v>73</v>
+        <v>73.984608114532804</v>
       </c>
       <c r="O8">
-        <v>74</v>
+        <v>74.409749961434798</v>
       </c>
       <c r="P8">
-        <v>76</v>
+        <v>76.023277591571002</v>
       </c>
       <c r="Q8">
-        <v>73</v>
+        <v>73.086174961024398</v>
       </c>
       <c r="R8">
-        <v>75</v>
+        <v>75.281867155499398</v>
       </c>
       <c r="S8">
-        <v>72</v>
+        <v>72.2219268882194</v>
       </c>
       <c r="T8">
-        <v>75</v>
+        <v>75.506843846234105</v>
       </c>
       <c r="U8">
-        <v>72</v>
+        <v>72.508493124184895</v>
       </c>
       <c r="V8">
-        <v>73</v>
+        <v>73.497118402735694</v>
       </c>
       <c r="W8">
-        <v>74</v>
+        <v>74.220234040560499</v>
       </c>
       <c r="X8">
-        <v>76</v>
+        <v>76.228077309823405</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1466,73 +1466,73 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>83.155956587916904</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>84.478164250934597</v>
       </c>
       <c r="D9">
-        <v>86</v>
+        <v>86.623278469538107</v>
       </c>
       <c r="E9">
-        <v>83</v>
+        <v>83.927197585145095</v>
       </c>
       <c r="F9">
-        <v>82</v>
+        <v>82.249884701996294</v>
       </c>
       <c r="G9">
-        <v>86</v>
+        <v>86.156838711596805</v>
       </c>
       <c r="H9">
-        <v>84</v>
+        <v>84.723290544310302</v>
       </c>
       <c r="I9">
-        <v>83</v>
+        <v>83.249382888669601</v>
       </c>
       <c r="J9">
-        <v>83</v>
+        <v>83.727024227787595</v>
       </c>
       <c r="K9">
-        <v>83</v>
+        <v>83.4832230341421</v>
       </c>
       <c r="L9">
-        <v>82</v>
+        <v>82.141418649262604</v>
       </c>
       <c r="M9">
-        <v>83</v>
+        <v>83.508566520478993</v>
       </c>
       <c r="N9">
-        <v>84</v>
+        <v>84.580648575630207</v>
       </c>
       <c r="O9">
-        <v>85</v>
+        <v>85.565120057582106</v>
       </c>
       <c r="P9">
-        <v>85</v>
+        <v>85.056890470424705</v>
       </c>
       <c r="Q9">
-        <v>84</v>
+        <v>84.153153729924099</v>
       </c>
       <c r="R9">
-        <v>86</v>
+        <v>86.272066312301604</v>
       </c>
       <c r="S9">
-        <v>82</v>
+        <v>82.022157154708694</v>
       </c>
       <c r="T9">
-        <v>83</v>
+        <v>83.230945476783504</v>
       </c>
       <c r="U9">
-        <v>83</v>
+        <v>83.181245728582795</v>
       </c>
       <c r="V9">
-        <v>84</v>
+        <v>84.613776118899906</v>
       </c>
       <c r="W9">
-        <v>84</v>
+        <v>84.635270143072205</v>
       </c>
       <c r="X9">
-        <v>83</v>
+        <v>83.661152539863707</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1540,73 +1540,73 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>64.5423319783485</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>63.104611991106701</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>66.126611267547602</v>
       </c>
       <c r="E10">
-        <v>66</v>
+        <v>66.363336709251897</v>
       </c>
       <c r="F10">
-        <v>66</v>
+        <v>66.795703561455696</v>
       </c>
       <c r="G10">
-        <v>66</v>
+        <v>66.385626691679306</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>65.281953892501704</v>
       </c>
       <c r="I10">
-        <v>65</v>
+        <v>65.9399852013496</v>
       </c>
       <c r="J10">
-        <v>66</v>
+        <v>66.478073056802998</v>
       </c>
       <c r="K10">
-        <v>63</v>
+        <v>63.3435872477895</v>
       </c>
       <c r="L10">
-        <v>62</v>
+        <v>62.895720708968803</v>
       </c>
       <c r="M10">
-        <v>63</v>
+        <v>63.528020130490297</v>
       </c>
       <c r="N10">
-        <v>66</v>
+        <v>66.702120587134601</v>
       </c>
       <c r="O10">
-        <v>63</v>
+        <v>63.967526017576603</v>
       </c>
       <c r="P10">
-        <v>62</v>
+        <v>62.304570127696302</v>
       </c>
       <c r="Q10">
-        <v>65</v>
+        <v>65.869197180695096</v>
       </c>
       <c r="R10">
-        <v>64</v>
+        <v>64.200015715657202</v>
       </c>
       <c r="S10">
-        <v>62</v>
+        <v>62.695402339502103</v>
       </c>
       <c r="T10">
-        <v>62</v>
+        <v>62.178967698963298</v>
       </c>
       <c r="U10">
-        <v>62</v>
+        <v>62.412289265330898</v>
       </c>
       <c r="V10">
-        <v>62</v>
+        <v>62.8512751779204</v>
       </c>
       <c r="W10">
-        <v>64</v>
+        <v>64.514738865677401</v>
       </c>
       <c r="X10">
-        <v>66</v>
+        <v>66.459688607356696</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1614,73 +1614,73 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>29.036008979812799</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>30.9354161767398</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>31.8156708242775</v>
       </c>
       <c r="E11">
-        <v>31</v>
+        <v>31.601833743891198</v>
       </c>
       <c r="F11">
-        <v>31</v>
+        <v>31.240001964779701</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>29.055714132716499</v>
       </c>
       <c r="H11">
-        <v>31</v>
+        <v>31.6439797261677</v>
       </c>
       <c r="I11">
-        <v>33</v>
+        <v>33.789674652729502</v>
       </c>
       <c r="J11">
-        <v>31</v>
+        <v>31.471495796816999</v>
       </c>
       <c r="K11">
-        <v>32</v>
+        <v>32.2247350462779</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>31.752989142917901</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>33.105750166060297</v>
       </c>
       <c r="N11">
-        <v>29</v>
+        <v>29.141492624738198</v>
       </c>
       <c r="O11">
-        <v>31</v>
+        <v>31.4321455155184</v>
       </c>
       <c r="P11">
-        <v>32</v>
+        <v>32.903993241433099</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>33.036646310261602</v>
       </c>
       <c r="R11">
-        <v>30</v>
+        <v>30.189648337725099</v>
       </c>
       <c r="S11">
-        <v>32</v>
+        <v>32.627705859097901</v>
       </c>
       <c r="T11">
-        <v>31</v>
+        <v>31.378979481106001</v>
       </c>
       <c r="U11">
-        <v>30</v>
+        <v>30.142284306920999</v>
       </c>
       <c r="V11">
-        <v>29</v>
+        <v>29.106577759125901</v>
       </c>
       <c r="W11">
-        <v>29</v>
+        <v>29.4391607451143</v>
       </c>
       <c r="X11">
-        <v>33</v>
+        <v>33.554185591826702</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1688,73 +1688,73 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>98.5792068284902</v>
       </c>
       <c r="C12">
-        <v>94</v>
+        <v>94.406885238955795</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>94.759591411145607</v>
       </c>
       <c r="E12">
-        <v>94</v>
+        <v>94.354613887628702</v>
       </c>
       <c r="F12">
-        <v>94</v>
+        <v>94.438297032054706</v>
       </c>
       <c r="G12">
-        <v>96</v>
+        <v>96.205711896453806</v>
       </c>
       <c r="H12">
-        <v>96</v>
+        <v>96.079194488680699</v>
       </c>
       <c r="I12">
-        <v>96</v>
+        <v>96.778108553918997</v>
       </c>
       <c r="J12">
-        <v>96</v>
+        <v>96.195213439857895</v>
       </c>
       <c r="K12">
-        <v>97</v>
+        <v>97.151486769041895</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>96.669252186694095</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>95.675061708177907</v>
       </c>
       <c r="N12">
-        <v>98</v>
+        <v>98.333875991236994</v>
       </c>
       <c r="O12">
-        <v>98</v>
+        <v>98.236943222386699</v>
       </c>
       <c r="P12">
-        <v>95</v>
+        <v>95.708395380956304</v>
       </c>
       <c r="Q12">
-        <v>94</v>
+        <v>94.799609815875598</v>
       </c>
       <c r="R12">
-        <v>97</v>
+        <v>97.190876359813103</v>
       </c>
       <c r="S12">
-        <v>98</v>
+        <v>98.172784078307799</v>
       </c>
       <c r="T12">
-        <v>97</v>
+        <v>97.6631510724755</v>
       </c>
       <c r="U12">
-        <v>94</v>
+        <v>94.650243007632298</v>
       </c>
       <c r="V12">
-        <v>95</v>
+        <v>95.057279094632193</v>
       </c>
       <c r="W12">
-        <v>95</v>
+        <v>95.5033993200162</v>
       </c>
       <c r="X12">
-        <v>94</v>
+        <v>94.170714010494706</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1762,73 +1762,73 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>26.908761783677001</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>25.8113327612683</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>28.885237591599399</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>27.158589761342299</v>
       </c>
       <c r="F13">
-        <v>26</v>
+        <v>26.021062963880201</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>26.900091156829699</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>27.462561179631098</v>
       </c>
       <c r="I13">
-        <v>27</v>
+        <v>27.987761464809399</v>
       </c>
       <c r="J13">
-        <v>25</v>
+        <v>25.528759174042801</v>
       </c>
       <c r="K13">
-        <v>28</v>
+        <v>28.2564760715711</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>25.8748993409191</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>28.739454142135099</v>
       </c>
       <c r="N13">
-        <v>25</v>
+        <v>25.822782561218801</v>
       </c>
       <c r="O13">
-        <v>27</v>
+        <v>27.323100739439401</v>
       </c>
       <c r="P13">
-        <v>29</v>
+        <v>29.466254840563099</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>25.702528693309699</v>
       </c>
       <c r="R13">
-        <v>25</v>
+        <v>25.860360578754499</v>
       </c>
       <c r="S13">
-        <v>28</v>
+        <v>28.955940231641499</v>
       </c>
       <c r="T13">
-        <v>28</v>
+        <v>28.000066305066699</v>
       </c>
       <c r="U13">
-        <v>27</v>
+        <v>27.912613570292901</v>
       </c>
       <c r="V13">
-        <v>26</v>
+        <v>26.494041612199101</v>
       </c>
       <c r="W13">
-        <v>26</v>
+        <v>26.306015290193201</v>
       </c>
       <c r="X13">
-        <v>25</v>
+        <v>25.8375184935386</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1836,73 +1836,73 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>67.510147142962296</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>67.636902917749197</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>64.391515993384303</v>
       </c>
       <c r="E14">
-        <v>66</v>
+        <v>66.9772256085854</v>
       </c>
       <c r="F14">
-        <v>63</v>
+        <v>63.530965266306303</v>
       </c>
       <c r="G14">
-        <v>67</v>
+        <v>67.676177482352699</v>
       </c>
       <c r="H14">
-        <v>63</v>
+        <v>63.5815764502589</v>
       </c>
       <c r="I14">
-        <v>66</v>
+        <v>66.115134398441796</v>
       </c>
       <c r="J14">
-        <v>67</v>
+        <v>67.954800718444304</v>
       </c>
       <c r="K14">
-        <v>64</v>
+        <v>64.868967077345999</v>
       </c>
       <c r="L14">
-        <v>67</v>
+        <v>67.892246051610499</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>65.562634285340906</v>
       </c>
       <c r="N14">
-        <v>65</v>
+        <v>65.156368567861705</v>
       </c>
       <c r="O14">
-        <v>63</v>
+        <v>63.055566948527101</v>
       </c>
       <c r="P14">
-        <v>65</v>
+        <v>65.259804770509703</v>
       </c>
       <c r="Q14">
-        <v>67</v>
+        <v>67.357876276918802</v>
       </c>
       <c r="R14">
-        <v>63</v>
+        <v>63.420815246064699</v>
       </c>
       <c r="S14">
-        <v>66</v>
+        <v>66.100661119566794</v>
       </c>
       <c r="T14">
-        <v>66</v>
+        <v>66.905983598413798</v>
       </c>
       <c r="U14">
-        <v>64</v>
+        <v>64.091036583604406</v>
       </c>
       <c r="V14">
-        <v>65</v>
+        <v>65.333764684167605</v>
       </c>
       <c r="W14">
-        <v>67</v>
+        <v>67.2902259385299</v>
       </c>
       <c r="X14">
-        <v>67</v>
+        <v>67.497539119148698</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1910,73 +1910,73 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>41.705703682251098</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>42.162650682322699</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>39.641780489684699</v>
       </c>
       <c r="E15">
-        <v>43</v>
+        <v>43.790008792232797</v>
       </c>
       <c r="F15">
-        <v>42</v>
+        <v>42.684484317818502</v>
       </c>
       <c r="G15">
-        <v>42</v>
+        <v>42.092190618890697</v>
       </c>
       <c r="H15">
-        <v>39</v>
+        <v>39.951495933282303</v>
       </c>
       <c r="I15">
-        <v>39</v>
+        <v>39.0541874825417</v>
       </c>
       <c r="J15">
-        <v>40</v>
+        <v>40.781688551815797</v>
       </c>
       <c r="K15">
-        <v>43</v>
+        <v>43.886678629443402</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>43.617041025597302</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>40.422338690269498</v>
       </c>
       <c r="N15">
-        <v>40</v>
+        <v>40.7884703206852</v>
       </c>
       <c r="O15">
-        <v>43</v>
+        <v>43.378198372590198</v>
       </c>
       <c r="P15">
-        <v>39</v>
+        <v>39.517821860940103</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>39.859026313964897</v>
       </c>
       <c r="R15">
-        <v>43</v>
+        <v>43.482611759641998</v>
       </c>
       <c r="S15">
-        <v>42</v>
+        <v>42.3356097292966</v>
       </c>
       <c r="T15">
-        <v>42</v>
+        <v>42.116566665565998</v>
       </c>
       <c r="U15">
-        <v>40</v>
+        <v>40.250012876132097</v>
       </c>
       <c r="V15">
-        <v>42</v>
+        <v>42.695480008044299</v>
       </c>
       <c r="W15">
-        <v>39</v>
+        <v>39.0331882699818</v>
       </c>
       <c r="X15">
-        <v>40</v>
+        <v>40.888800115472201</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1984,73 +1984,73 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>74.0465336449425</v>
       </c>
       <c r="C16">
-        <v>71</v>
+        <v>71.124408311600305</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>72.8388373498438</v>
       </c>
       <c r="E16">
-        <v>71</v>
+        <v>71.536960512189793</v>
       </c>
       <c r="F16">
-        <v>74</v>
+        <v>74.949860149004706</v>
       </c>
       <c r="G16">
-        <v>71</v>
+        <v>71.628875288008402</v>
       </c>
       <c r="H16">
-        <v>73</v>
+        <v>73.923695902950996</v>
       </c>
       <c r="I16">
-        <v>70</v>
+        <v>70.547400978154897</v>
       </c>
       <c r="J16">
-        <v>72</v>
+        <v>72.571240801898895</v>
       </c>
       <c r="K16">
-        <v>74</v>
+        <v>74.917635878210305</v>
       </c>
       <c r="L16">
-        <v>72</v>
+        <v>72.548172741083903</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>71.779250460900002</v>
       </c>
       <c r="N16">
-        <v>71</v>
+        <v>71.795309638181706</v>
       </c>
       <c r="O16">
-        <v>71</v>
+        <v>71.171401945072503</v>
       </c>
       <c r="P16">
-        <v>73</v>
+        <v>73.593801855687602</v>
       </c>
       <c r="Q16">
-        <v>73</v>
+        <v>73.498641413416195</v>
       </c>
       <c r="R16">
-        <v>71</v>
+        <v>71.399244178953694</v>
       </c>
       <c r="S16">
-        <v>70</v>
+        <v>70.128429652314793</v>
       </c>
       <c r="T16">
-        <v>72</v>
+        <v>72.031359942782998</v>
       </c>
       <c r="U16">
-        <v>74</v>
+        <v>74.537055798930396</v>
       </c>
       <c r="V16">
-        <v>72</v>
+        <v>72.986143775378295</v>
       </c>
       <c r="W16">
-        <v>73</v>
+        <v>73.673080016362704</v>
       </c>
       <c r="X16">
-        <v>72</v>
+        <v>72.414829253288701</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -2058,73 +2058,73 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>61.3806875475453</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>59.338316661152398</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>60.504732266862398</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>61.493367986887598</v>
       </c>
       <c r="F17">
-        <v>61</v>
+        <v>61.180169694109097</v>
       </c>
       <c r="G17">
-        <v>59</v>
+        <v>59.862392868271698</v>
       </c>
       <c r="H17">
-        <v>62</v>
+        <v>62.3481677940797</v>
       </c>
       <c r="I17">
-        <v>60</v>
+        <v>60.684169630208601</v>
       </c>
       <c r="J17">
-        <v>62</v>
+        <v>62.251057741211802</v>
       </c>
       <c r="K17">
-        <v>60</v>
+        <v>60.0094415544798</v>
       </c>
       <c r="L17">
-        <v>61</v>
+        <v>61.305430779008802</v>
       </c>
       <c r="M17">
-        <v>62</v>
+        <v>62.409306373465</v>
       </c>
       <c r="N17">
-        <v>63</v>
+        <v>63.075361361295698</v>
       </c>
       <c r="O17">
-        <v>60</v>
+        <v>60.129869741112401</v>
       </c>
       <c r="P17">
-        <v>60</v>
+        <v>60.920475485973498</v>
       </c>
       <c r="Q17">
-        <v>62</v>
+        <v>62.615021024667698</v>
       </c>
       <c r="R17">
-        <v>61</v>
+        <v>61.175588162420397</v>
       </c>
       <c r="S17">
-        <v>60</v>
+        <v>60.655815923727801</v>
       </c>
       <c r="T17">
-        <v>60</v>
+        <v>60.1924810691388</v>
       </c>
       <c r="U17">
-        <v>62</v>
+        <v>62.343959209091103</v>
       </c>
       <c r="V17">
-        <v>59</v>
+        <v>59.879519619735298</v>
       </c>
       <c r="W17">
-        <v>59</v>
+        <v>59.626265147635301</v>
       </c>
       <c r="X17">
-        <v>59</v>
+        <v>59.398473701197602</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -2132,73 +2132,73 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>78.658195089748403</v>
       </c>
       <c r="C18">
-        <v>78</v>
+        <v>78.196355109934103</v>
       </c>
       <c r="D18">
-        <v>76</v>
+        <v>76.788063133070906</v>
       </c>
       <c r="E18">
-        <v>74</v>
+        <v>74.802414773061599</v>
       </c>
       <c r="F18">
-        <v>76</v>
+        <v>76.531776091381502</v>
       </c>
       <c r="G18">
-        <v>74</v>
+        <v>74.214084029198901</v>
       </c>
       <c r="H18">
-        <v>74</v>
+        <v>74.234621556095206</v>
       </c>
       <c r="I18">
-        <v>76</v>
+        <v>76.4664509686271</v>
       </c>
       <c r="J18">
-        <v>78</v>
+        <v>78.390282550470502</v>
       </c>
       <c r="K18">
-        <v>78</v>
+        <v>78.712584807769602</v>
       </c>
       <c r="L18">
-        <v>77</v>
+        <v>77.580754588636296</v>
       </c>
       <c r="M18">
-        <v>76</v>
+        <v>76.7638476020051</v>
       </c>
       <c r="N18">
-        <v>74</v>
+        <v>74.921827766716106</v>
       </c>
       <c r="O18">
-        <v>74</v>
+        <v>74.100441561603205</v>
       </c>
       <c r="P18">
-        <v>74</v>
+        <v>74.6919335604602</v>
       </c>
       <c r="Q18">
-        <v>75</v>
+        <v>75.014447209314199</v>
       </c>
       <c r="R18">
-        <v>76</v>
+        <v>76.927438923532094</v>
       </c>
       <c r="S18">
-        <v>77</v>
+        <v>77.064366811667497</v>
       </c>
       <c r="T18">
-        <v>74</v>
+        <v>74.2374335774998</v>
       </c>
       <c r="U18">
-        <v>78</v>
+        <v>78.963031138015296</v>
       </c>
       <c r="V18">
-        <v>78</v>
+        <v>78.070440626772097</v>
       </c>
       <c r="W18">
-        <v>76</v>
+        <v>76.614830749014999</v>
       </c>
       <c r="X18">
-        <v>78</v>
+        <v>78.056414563510103</v>
       </c>
     </row>
   </sheetData>
